--- a/حساب وليد سيد.xlsx
+++ b/حساب وليد سيد.xlsx
@@ -4,19 +4,104 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="مسحوبات" sheetId="2" r:id="rId2"/>
-    <sheet name="نقديات" sheetId="3" r:id="rId3"/>
+    <sheet name="نقدي" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="على جنب" sheetId="5" r:id="rId3"/>
+    <sheet name="مسحوبات" sheetId="2" r:id="rId4"/>
+    <sheet name="نقديات العركة" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Author</author>
+  </authors>
+  <commentList>
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+رصيد وليد من 2019</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+رصيد وليد من 2019</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C22" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+كان مكتوب 219000 واتضح انها مكررة بشكل تفصيلي
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>ايصال استلام الخام</t>
   </si>
@@ -131,6 +216,15 @@
   <si>
     <t>مسحوب</t>
   </si>
+  <si>
+    <t>اجمالي الواصل</t>
+  </si>
+  <si>
+    <t>المبلغ الوارد</t>
+  </si>
+  <si>
+    <t xml:space="preserve">رصيد </t>
+  </si>
 </sst>
 </file>
 
@@ -139,7 +233,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -222,6 +316,28 @@
     </font>
     <font>
       <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -463,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -567,18 +683,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1118,9 +1240,2037 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M123"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="39">
+        <f>SUM(B4:B123)</f>
+        <v>1966045</v>
+      </c>
+      <c r="C2" s="39">
+        <f>SUM(C4:C123)</f>
+        <v>1893239</v>
+      </c>
+      <c r="D2" s="39">
+        <f>C2-B2</f>
+        <v>-72806</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="43"/>
+      <c r="F3" s="44"/>
+      <c r="L3" s="51">
+        <f>L4+M4</f>
+        <v>2227432</v>
+      </c>
+      <c r="M3" s="52"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="45">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46">
+        <f>مسحوبات!H3</f>
+        <v>1562045</v>
+      </c>
+      <c r="C4" s="46">
+        <f>مسحوبات!I3</f>
+        <v>1893239</v>
+      </c>
+      <c r="D4" s="46">
+        <f>B4-C4</f>
+        <v>-331194</v>
+      </c>
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="L4" s="47">
+        <f>SUM(L6:L52)</f>
+        <v>1080732</v>
+      </c>
+      <c r="M4" s="47">
+        <f>SUM(M6:M52)</f>
+        <v>1146700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="48">
+        <f>A4+1</f>
+        <v>2</v>
+      </c>
+      <c r="B5" s="46">
+        <f>مسحوبات!I6</f>
+        <v>236000</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47">
+        <f>D4+B5-C5</f>
+        <v>-95194</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" s="48">
+        <f t="shared" ref="A6:A69" si="0">A5+1</f>
+        <v>3</v>
+      </c>
+      <c r="B6" s="46">
+        <f>مسحوبات!J6</f>
+        <v>168000</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47">
+        <f t="shared" ref="D6:D69" si="1">D5+B6-C6</f>
+        <v>72806</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="H6" s="39">
+        <v>1402172</v>
+      </c>
+      <c r="I6" s="39">
+        <v>2227423</v>
+      </c>
+      <c r="J6" s="39">
+        <f>I6-H6</f>
+        <v>825251</v>
+      </c>
+      <c r="L6" s="47">
+        <v>50000</v>
+      </c>
+      <c r="M6" s="47">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" s="48">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="L7" s="47">
+        <v>70000</v>
+      </c>
+      <c r="M7" s="47">
+        <v>55000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="48">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="L8" s="47">
+        <v>25000</v>
+      </c>
+      <c r="M8" s="49">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="48">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="L9" s="47">
+        <v>50000</v>
+      </c>
+      <c r="M9" s="47">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="48">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="L10" s="47">
+        <v>50000</v>
+      </c>
+      <c r="M10" s="47">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" s="48">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="L11" s="47">
+        <v>10000</v>
+      </c>
+      <c r="M11" s="47">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="48">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="L12" s="49">
+        <v>6000</v>
+      </c>
+      <c r="M12" s="47">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A13" s="48">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" s="48">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="L14" s="47">
+        <v>5000</v>
+      </c>
+      <c r="M14" s="47"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="48">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="L15" s="47">
+        <v>2000</v>
+      </c>
+      <c r="M15" s="47">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="48">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="L16" s="47">
+        <v>15000</v>
+      </c>
+      <c r="M16" s="47">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A17" s="48">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="L17" s="49">
+        <v>23100</v>
+      </c>
+      <c r="M17" s="47">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A18" s="48">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="L18" s="47">
+        <v>1000</v>
+      </c>
+      <c r="M18" s="49">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A19" s="48">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="L19" s="47">
+        <v>10000</v>
+      </c>
+      <c r="M19" s="49">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A20" s="48">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="L20" s="47">
+        <v>25400</v>
+      </c>
+      <c r="M20" s="47">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A21" s="48">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="L21" s="47">
+        <v>9000</v>
+      </c>
+      <c r="M21" s="47">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="48">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="L22" s="50">
+        <v>10000</v>
+      </c>
+      <c r="M22" s="47">
+        <v>58950</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="48">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="L23" s="47">
+        <v>14000</v>
+      </c>
+      <c r="M23" s="47">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="48">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="L24" s="47">
+        <v>10000</v>
+      </c>
+      <c r="M24" s="47">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="48">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="L25" s="47">
+        <v>1400</v>
+      </c>
+      <c r="M25" s="47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A26" s="48">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A27" s="48">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="L27" s="47">
+        <v>30000</v>
+      </c>
+      <c r="M27" s="47"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" s="48">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="L28" s="47">
+        <v>40000</v>
+      </c>
+      <c r="M28" s="47">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" s="48">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="L29" s="47">
+        <v>20000</v>
+      </c>
+      <c r="M29" s="47">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" s="48">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="L30" s="47">
+        <v>40000</v>
+      </c>
+      <c r="M30" s="47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" s="48">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="L31" s="47">
+        <v>50000</v>
+      </c>
+      <c r="M31" s="47">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" s="48">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="L32" s="47">
+        <v>10000</v>
+      </c>
+      <c r="M32" s="47">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" s="48">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="L33" s="47">
+        <v>30000</v>
+      </c>
+      <c r="M33" s="47">
+        <v>52000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" s="48">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="L34" s="47">
+        <v>29000</v>
+      </c>
+      <c r="M34" s="47">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" s="48">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="L35" s="49">
+        <v>35200</v>
+      </c>
+      <c r="M35" s="47">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" s="48">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="L36" s="47">
+        <v>15000</v>
+      </c>
+      <c r="M36" s="47">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" s="48">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" s="48">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="L38" s="47">
+        <v>40000</v>
+      </c>
+      <c r="M38" s="47">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" s="48">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="L39" s="47">
+        <v>40000</v>
+      </c>
+      <c r="M39" s="47">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" s="48">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="L40" s="47">
+        <v>5000</v>
+      </c>
+      <c r="M40" s="47">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" s="48">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="L41" s="47">
+        <v>28800</v>
+      </c>
+      <c r="M41" s="47">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" s="48">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="L42" s="47">
+        <v>70000</v>
+      </c>
+      <c r="M42" s="47">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A43" s="48">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="L43" s="47">
+        <v>10000</v>
+      </c>
+      <c r="M43" s="47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A44" s="48">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="L44" s="47">
+        <v>832</v>
+      </c>
+      <c r="M44" s="47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A45" s="48">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="L45" s="47">
+        <v>15000</v>
+      </c>
+      <c r="M45" s="47">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A46" s="48">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="L46" s="47">
+        <v>15000</v>
+      </c>
+      <c r="M46" s="47"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A47" s="48">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="L47" s="47">
+        <v>50000</v>
+      </c>
+      <c r="M47" s="47">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A48" s="48">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="L48" s="47">
+        <v>10000</v>
+      </c>
+      <c r="M48" s="47"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="48">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="L49" s="47"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="48">
+        <f t="shared" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="L50" s="47">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="48">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="L51" s="47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="48">
+        <f t="shared" si="0"/>
+        <v>49</v>
+      </c>
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="L52" s="47">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="48">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="48">
+        <f t="shared" si="0"/>
+        <v>51</v>
+      </c>
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="48">
+        <f t="shared" si="0"/>
+        <v>52</v>
+      </c>
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="48">
+        <f t="shared" si="0"/>
+        <v>53</v>
+      </c>
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="48">
+        <f t="shared" si="0"/>
+        <v>54</v>
+      </c>
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A58" s="48">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="48">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="48">
+        <f t="shared" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="48">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="48">
+        <f t="shared" si="0"/>
+        <v>59</v>
+      </c>
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="48">
+        <f t="shared" si="0"/>
+        <v>60</v>
+      </c>
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="48">
+        <f t="shared" si="0"/>
+        <v>61</v>
+      </c>
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A65" s="48">
+        <f t="shared" si="0"/>
+        <v>62</v>
+      </c>
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A66" s="48">
+        <f t="shared" si="0"/>
+        <v>63</v>
+      </c>
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A67" s="48">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A68" s="48">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A69" s="48">
+        <f t="shared" si="0"/>
+        <v>66</v>
+      </c>
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="47">
+        <f t="shared" si="1"/>
+        <v>72806</v>
+      </c>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A70" s="48">
+        <f t="shared" ref="A70:A123" si="2">A69+1</f>
+        <v>67</v>
+      </c>
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="47">
+        <f t="shared" ref="D70:D123" si="3">D69+B70-C70</f>
+        <v>72806</v>
+      </c>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A71" s="48">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A72" s="48">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A73" s="48">
+        <f t="shared" si="2"/>
+        <v>70</v>
+      </c>
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A74" s="48">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="B74" s="47"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A75" s="48">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="B75" s="47"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A76" s="48">
+        <f t="shared" si="2"/>
+        <v>73</v>
+      </c>
+      <c r="B76" s="47"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A77" s="48">
+        <f t="shared" si="2"/>
+        <v>74</v>
+      </c>
+      <c r="B77" s="47"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A78" s="48">
+        <f t="shared" si="2"/>
+        <v>75</v>
+      </c>
+      <c r="B78" s="47"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A79" s="48">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="B79" s="47"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A80" s="48">
+        <f t="shared" si="2"/>
+        <v>77</v>
+      </c>
+      <c r="B80" s="47"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A81" s="48">
+        <f t="shared" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="B81" s="47"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A82" s="48">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="B82" s="47"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A83" s="48">
+        <f t="shared" si="2"/>
+        <v>80</v>
+      </c>
+      <c r="B83" s="47"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A84" s="48">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="B84" s="47"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="48">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="B85" s="47"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A86" s="48">
+        <f t="shared" si="2"/>
+        <v>83</v>
+      </c>
+      <c r="B86" s="47"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="48">
+        <f t="shared" si="2"/>
+        <v>84</v>
+      </c>
+      <c r="B87" s="47"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="48">
+        <f t="shared" si="2"/>
+        <v>85</v>
+      </c>
+      <c r="B88" s="47"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A89" s="48">
+        <f t="shared" si="2"/>
+        <v>86</v>
+      </c>
+      <c r="B89" s="47"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A90" s="48">
+        <f t="shared" si="2"/>
+        <v>87</v>
+      </c>
+      <c r="B90" s="47"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="48">
+        <f t="shared" si="2"/>
+        <v>88</v>
+      </c>
+      <c r="B91" s="47"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A92" s="48">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="B92" s="47"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="48">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="B93" s="47"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="48">
+        <f t="shared" si="2"/>
+        <v>91</v>
+      </c>
+      <c r="B94" s="47"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A95" s="48">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="B95" s="47"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A96" s="48">
+        <f t="shared" si="2"/>
+        <v>93</v>
+      </c>
+      <c r="B96" s="47"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="48">
+        <f t="shared" si="2"/>
+        <v>94</v>
+      </c>
+      <c r="B97" s="47"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98" s="48">
+        <f t="shared" si="2"/>
+        <v>95</v>
+      </c>
+      <c r="B98" s="47"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="48">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="B99" s="47"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="48">
+        <f t="shared" si="2"/>
+        <v>97</v>
+      </c>
+      <c r="B100" s="47"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="48">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B101" s="47"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="48">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B102" s="47"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A103" s="48">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B103" s="47"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="48">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B104" s="47"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A105" s="48">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B105" s="47"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="48">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B106" s="47"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A107" s="48">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B107" s="47"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="48">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B108" s="47"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="48">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B109" s="47"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A110" s="48">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B110" s="47"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="48">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B111" s="47"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="48">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B112" s="47"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A113" s="48">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="48">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="48">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="48">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="48">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B117" s="47"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="48">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B118" s="47"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="48">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="B119" s="47"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A120" s="48">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="B120" s="47"/>
+      <c r="C120" s="47"/>
+      <c r="D120" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="48">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="48">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="48">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47">
+        <f t="shared" si="3"/>
+        <v>72806</v>
+      </c>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="L3:M3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BL235"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="D5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
@@ -11693,766 +13843,1411 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A2:J67"/>
+  <dimension ref="A1:B117"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H4" sqref="H4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.125" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.25" customWidth="1"/>
+    <col min="2" max="2" width="14.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="23.25" x14ac:dyDescent="0.2">
+      <c r="A1" s="54">
+        <f>SUBTOTAL(9,A2:A100)</f>
+        <v>423000</v>
+      </c>
+      <c r="B1" s="54">
+        <f>SUBTOTAL(9,B2:B100)</f>
+        <v>1202110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" s="17">
+        <v>6000</v>
+      </c>
+      <c r="B2" s="17">
+        <v>21000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A3" s="17">
+        <v>50000</v>
+      </c>
+      <c r="B3" s="17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A4" s="17">
+        <v>20000</v>
+      </c>
+      <c r="B4" s="17">
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A5" s="17">
+        <v>5000</v>
+      </c>
+      <c r="B5" s="17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A6" s="17">
+        <v>5000</v>
+      </c>
+      <c r="B6" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A7" s="17">
+        <v>1000</v>
+      </c>
+      <c r="B7" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A8" s="17">
+        <v>10000</v>
+      </c>
+      <c r="B8" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A9" s="17">
+        <v>5000</v>
+      </c>
+      <c r="B9" s="17">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A10" s="17">
+        <v>30000</v>
+      </c>
+      <c r="B10" s="17">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A11" s="53">
+        <v>10000</v>
+      </c>
+      <c r="B11" s="17">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A12" s="17">
+        <v>30000</v>
+      </c>
+      <c r="B12" s="17">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A13" s="17">
+        <v>5000</v>
+      </c>
+      <c r="B13" s="17">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A14" s="17">
+        <v>1500</v>
+      </c>
+      <c r="B14" s="17">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A15" s="17">
+        <v>10000</v>
+      </c>
+      <c r="B15" s="17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A16" s="17">
+        <v>10000</v>
+      </c>
+      <c r="B16" s="17">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A17" s="17">
+        <v>15000</v>
+      </c>
+      <c r="B17" s="17">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A18" s="17">
+        <v>5000</v>
+      </c>
+      <c r="B18" s="17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A19" s="17">
+        <v>10000</v>
+      </c>
+      <c r="B19" s="17">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A20" s="17">
+        <v>20000</v>
+      </c>
+      <c r="B20" s="17">
+        <v>13350</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A21" s="17">
+        <v>5000</v>
+      </c>
+      <c r="B21" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A22" s="17">
+        <v>6000</v>
+      </c>
+      <c r="B22" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A23" s="17">
+        <v>27000</v>
+      </c>
+      <c r="B23" s="17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A24" s="17">
+        <v>5000</v>
+      </c>
+      <c r="B24" s="17">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A25" s="17">
+        <v>8000</v>
+      </c>
+      <c r="B25" s="17">
+        <v>30000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A26" s="17">
+        <v>20000</v>
+      </c>
+      <c r="B26" s="17">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A27" s="17">
+        <v>6000</v>
+      </c>
+      <c r="B27" s="17">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A28" s="17">
+        <v>15000</v>
+      </c>
+      <c r="B28" s="17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A29" s="17">
+        <v>5000</v>
+      </c>
+      <c r="B29" s="17">
+        <v>135000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A30" s="17">
+        <v>500</v>
+      </c>
+      <c r="B30" s="17">
+        <v>65000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A31" s="17">
+        <v>5000</v>
+      </c>
+      <c r="B31" s="17">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A32" s="17">
+        <v>2000</v>
+      </c>
+      <c r="B32" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A33" s="17">
+        <v>30000</v>
+      </c>
+      <c r="B33" s="17">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A34" s="17">
+        <v>10000</v>
+      </c>
+      <c r="B34" s="17">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A35" s="17">
+        <v>30000</v>
+      </c>
+      <c r="B35" s="17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17">
+        <v>2540</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+    </row>
+    <row r="38" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+    </row>
+    <row r="40" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+    </row>
+    <row r="41" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A41" s="17"/>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+    </row>
+    <row r="43" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+    </row>
+    <row r="44" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+    </row>
+    <row r="46" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+    </row>
+    <row r="47" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A48" s="17"/>
+      <c r="B48" s="17"/>
+    </row>
+    <row r="49" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A49" s="17"/>
+      <c r="B49" s="17"/>
+    </row>
+    <row r="50" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A50" s="17"/>
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A51" s="17"/>
+      <c r="B51" s="17"/>
+    </row>
+    <row r="52" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A52" s="17"/>
+      <c r="B52" s="17"/>
+    </row>
+    <row r="53" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A53" s="17"/>
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17"/>
+    </row>
+    <row r="55" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A55" s="17"/>
+      <c r="B55" s="17"/>
+    </row>
+    <row r="56" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A56" s="17"/>
+      <c r="B56" s="17"/>
+    </row>
+    <row r="57" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A57" s="17"/>
+      <c r="B57" s="17"/>
+    </row>
+    <row r="58" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A58" s="17"/>
+      <c r="B58" s="17"/>
+    </row>
+    <row r="59" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A59" s="17"/>
+      <c r="B59" s="17"/>
+    </row>
+    <row r="60" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A60" s="17"/>
+      <c r="B60" s="17"/>
+    </row>
+    <row r="61" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="17"/>
+    </row>
+    <row r="62" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A62" s="17"/>
+      <c r="B62" s="17"/>
+    </row>
+    <row r="63" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A63" s="17"/>
+      <c r="B63" s="17"/>
+    </row>
+    <row r="64" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A64" s="17"/>
+      <c r="B64" s="17"/>
+    </row>
+    <row r="65" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A65" s="17"/>
+      <c r="B65" s="17"/>
+    </row>
+    <row r="66" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17"/>
+    </row>
+    <row r="67" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A67" s="17"/>
+      <c r="B67" s="17"/>
+    </row>
+    <row r="68" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A68" s="17"/>
+      <c r="B68" s="17"/>
+    </row>
+    <row r="69" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A69" s="17"/>
+      <c r="B69" s="17"/>
+    </row>
+    <row r="70" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A70" s="17"/>
+      <c r="B70" s="17"/>
+    </row>
+    <row r="71" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A71" s="17"/>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A72" s="17"/>
+      <c r="B72" s="17"/>
+    </row>
+    <row r="73" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A73" s="17"/>
+      <c r="B73" s="17"/>
+    </row>
+    <row r="74" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A74" s="17"/>
+      <c r="B74" s="17"/>
+    </row>
+    <row r="75" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A75" s="17"/>
+      <c r="B75" s="17"/>
+    </row>
+    <row r="76" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A76" s="17"/>
+      <c r="B76" s="17"/>
+    </row>
+    <row r="77" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A77" s="17"/>
+      <c r="B77" s="17"/>
+    </row>
+    <row r="78" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A78" s="17"/>
+      <c r="B78" s="17"/>
+    </row>
+    <row r="79" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A79" s="17"/>
+      <c r="B79" s="17"/>
+    </row>
+    <row r="80" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A80" s="17"/>
+      <c r="B80" s="17"/>
+    </row>
+    <row r="81" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A81" s="17"/>
+      <c r="B81" s="17"/>
+    </row>
+    <row r="82" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A82" s="17"/>
+      <c r="B82" s="17"/>
+    </row>
+    <row r="83" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A83" s="17"/>
+      <c r="B83" s="17"/>
+    </row>
+    <row r="84" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A84" s="17"/>
+      <c r="B84" s="17"/>
+    </row>
+    <row r="85" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A85" s="17"/>
+      <c r="B85" s="17"/>
+    </row>
+    <row r="86" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A86" s="17"/>
+      <c r="B86" s="17"/>
+    </row>
+    <row r="87" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A87" s="17"/>
+      <c r="B87" s="17"/>
+    </row>
+    <row r="88" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A88" s="17"/>
+      <c r="B88" s="17"/>
+    </row>
+    <row r="89" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A89" s="17"/>
+      <c r="B89" s="17"/>
+    </row>
+    <row r="90" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A90" s="17"/>
+      <c r="B90" s="17"/>
+    </row>
+    <row r="91" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A91" s="17"/>
+      <c r="B91" s="17"/>
+    </row>
+    <row r="92" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A92" s="17"/>
+      <c r="B92" s="17"/>
+    </row>
+    <row r="93" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A93" s="17"/>
+      <c r="B93" s="17"/>
+    </row>
+    <row r="94" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A94" s="17"/>
+      <c r="B94" s="17"/>
+    </row>
+    <row r="95" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A95" s="17"/>
+      <c r="B95" s="17"/>
+    </row>
+    <row r="96" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A96" s="17"/>
+      <c r="B96" s="17"/>
+    </row>
+    <row r="97" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A97" s="17"/>
+      <c r="B97" s="17"/>
+    </row>
+    <row r="98" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="17"/>
+    </row>
+    <row r="99" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A99" s="17"/>
+      <c r="B99" s="17"/>
+    </row>
+    <row r="100" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A100" s="17"/>
+      <c r="B100" s="17"/>
+    </row>
+    <row r="101" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A101" s="17"/>
+      <c r="B101" s="17"/>
+    </row>
+    <row r="102" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+    </row>
+    <row r="103" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="17"/>
+    </row>
+    <row r="104" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A104" s="17"/>
+      <c r="B104" s="17"/>
+    </row>
+    <row r="105" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+    </row>
+    <row r="106" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A106" s="17"/>
+      <c r="B106" s="17"/>
+    </row>
+    <row r="107" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="A107" s="17"/>
+      <c r="B107" s="17"/>
+    </row>
+    <row r="108" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B108" s="17"/>
+    </row>
+    <row r="109" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B109" s="17"/>
+    </row>
+    <row r="110" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B110" s="17"/>
+    </row>
+    <row r="111" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B111" s="17"/>
+    </row>
+    <row r="112" spans="1:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B112" s="17"/>
+    </row>
+    <row r="113" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B113" s="17"/>
+    </row>
+    <row r="114" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B114" s="17"/>
+    </row>
+    <row r="115" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B115" s="17"/>
+    </row>
+    <row r="116" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B116" s="17"/>
+    </row>
+    <row r="117" spans="2:2" ht="18" x14ac:dyDescent="0.2">
+      <c r="B117" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B2:L67"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" customWidth="1"/>
+    <col min="10" max="10" width="10.75" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.75" customWidth="1"/>
+    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="17">
         <v>570879</v>
       </c>
-      <c r="B2" s="17">
+      <c r="C2" s="17">
         <v>441077</v>
       </c>
-      <c r="C2" s="17">
+      <c r="D2" s="17">
         <v>238751</v>
       </c>
-      <c r="D2" s="17">
+      <c r="E2" s="17">
         <v>311338</v>
       </c>
-      <c r="E2" s="17">
-        <f>SUM(A2:D2)</f>
+      <c r="F2" s="17">
+        <f>SUM(B2:E2)</f>
         <v>1562045</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="H2" s="40" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" s="40" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="C3" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="D3" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="E3" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="F3" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="40" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" s="40" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="39">
-        <f>A2-A5</f>
-        <v>-16701</v>
-      </c>
+      <c r="H3" s="17">
+        <f>F2</f>
+        <v>1562045</v>
+      </c>
+      <c r="I3" s="17">
+        <f>F5</f>
+        <v>1893239</v>
+      </c>
+      <c r="J3" s="17">
+        <f>H3-I3</f>
+        <v>-331194</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="39">
         <f>B2-B5</f>
-        <v>-368924</v>
-      </c>
-      <c r="G4" s="17">
-        <f>E2</f>
-        <v>1562045</v>
-      </c>
-      <c r="H4" s="17">
-        <f>E5</f>
-        <v>1958933</v>
-      </c>
-      <c r="I4" s="17">
-        <f>G4-H4</f>
-        <v>-396888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="18.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <f t="shared" ref="A5:D5" si="0">SUM(A7:A76)</f>
+        <v>-16701</v>
+      </c>
+      <c r="C4" s="39">
+        <f>C2-C5</f>
+        <v>-149924</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="17">
+        <f t="shared" ref="B5:E5" si="0">SUM(B7:B76)</f>
         <v>587580</v>
       </c>
-      <c r="B5" s="17">
-        <f>SUM(B7:B76)</f>
-        <v>810001</v>
-      </c>
       <c r="C5" s="17">
+        <f>SUM(C7:C76)</f>
+        <v>591001</v>
+      </c>
+      <c r="D5" s="17">
         <f t="shared" si="0"/>
         <v>209852</v>
       </c>
-      <c r="D5" s="17">
+      <c r="E5" s="17">
         <f t="shared" si="0"/>
-        <v>351500</v>
-      </c>
-      <c r="E5" s="17">
-        <f>SUM(A5:D5)</f>
-        <v>1958933</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+        <v>504806</v>
+      </c>
+      <c r="F5" s="17">
+        <f>SUM(B5:E5)</f>
+        <v>1893239</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="36.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="C6" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="D6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="E6" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="F6" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="40" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A7" s="17">
+      <c r="H6" s="17">
+        <f>J3</f>
+        <v>-331194</v>
+      </c>
+      <c r="I6" s="17">
+        <v>236000</v>
+      </c>
+      <c r="J6" s="17">
+        <v>168000</v>
+      </c>
+      <c r="K6" s="17">
+        <f>SUM(I6:J6)</f>
+        <v>404000</v>
+      </c>
+      <c r="L6" s="17">
+        <f>K6+H6</f>
+        <v>72806</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B7" s="17">
         <v>38500</v>
       </c>
-      <c r="B7" s="17">
+      <c r="C7" s="17">
         <v>15000</v>
       </c>
-      <c r="C7" s="17">
+      <c r="D7" s="17">
         <v>5000</v>
       </c>
-      <c r="D7" s="17">
+      <c r="E7" s="17">
         <v>8000</v>
       </c>
-      <c r="G7" s="41">
-        <f>I4</f>
-        <v>-396888</v>
-      </c>
-      <c r="H7" s="41">
-        <v>236000</v>
-      </c>
-      <c r="I7" s="41">
-        <v>168000</v>
-      </c>
-      <c r="J7" s="39">
-        <f>I7+H7-G7</f>
-        <v>800888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="17">
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B8" s="17">
         <v>5000</v>
       </c>
-      <c r="B8" s="17">
+      <c r="C8" s="17">
         <v>1000</v>
       </c>
-      <c r="C8" s="17">
+      <c r="D8" s="17">
         <v>30000</v>
       </c>
-      <c r="D8" s="17">
+      <c r="E8" s="17">
         <v>4000</v>
       </c>
-      <c r="G8" s="41"/>
-    </row>
-    <row r="9" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A9" s="17">
+    </row>
+    <row r="9" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B9" s="17">
         <v>20000</v>
       </c>
-      <c r="B9" s="17">
+      <c r="C9" s="17">
         <v>10000</v>
       </c>
-      <c r="C9" s="17">
+      <c r="D9" s="17">
         <v>4500</v>
       </c>
-      <c r="D9" s="17">
+      <c r="E9" s="17">
         <v>20000</v>
       </c>
-      <c r="G9" s="41"/>
-    </row>
-    <row r="10" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A10" s="17">
+    </row>
+    <row r="10" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B10" s="17">
         <v>10000</v>
       </c>
-      <c r="B10" s="17">
+      <c r="C10" s="17">
         <v>15000</v>
       </c>
-      <c r="C10" s="17">
+      <c r="D10" s="17">
         <v>40000</v>
       </c>
-      <c r="D10" s="17">
+      <c r="E10" s="17">
         <v>107500</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A11" s="17">
+    <row r="11" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B11" s="17">
         <v>5050</v>
       </c>
-      <c r="B11" s="17">
+      <c r="C11" s="17">
         <v>60000</v>
       </c>
-      <c r="C11" s="17">
+      <c r="D11" s="17">
         <v>10000</v>
       </c>
-      <c r="D11" s="17">
+      <c r="E11" s="17">
         <v>57000</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A12" s="17">
+    <row r="12" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B12" s="17">
         <v>30000</v>
       </c>
-      <c r="B12" s="17">
+      <c r="C12" s="17">
         <v>1000</v>
       </c>
-      <c r="C12" s="17">
+      <c r="D12" s="17">
         <v>20000</v>
       </c>
-      <c r="D12" s="17">
+      <c r="E12" s="17">
         <v>15000</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A13" s="17">
+    <row r="13" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B13" s="17">
         <v>2000</v>
       </c>
-      <c r="B13" s="17">
+      <c r="C13" s="17">
         <v>6000</v>
       </c>
-      <c r="C13" s="17">
+      <c r="D13" s="17">
         <v>1000</v>
       </c>
-      <c r="D13" s="17">
+      <c r="E13" s="17">
         <v>10000</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A14" s="17">
+    <row r="14" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B14" s="17">
         <v>15000</v>
-      </c>
-      <c r="B14" s="17">
-        <v>20000</v>
       </c>
       <c r="C14" s="17">
         <v>20000</v>
       </c>
       <c r="D14" s="17">
+        <v>20000</v>
+      </c>
+      <c r="E14" s="17">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A15" s="17">
+    <row r="15" spans="2:12" ht="18" x14ac:dyDescent="0.2">
+      <c r="B15" s="17">
         <v>2000</v>
       </c>
-      <c r="B15" s="17">
+      <c r="C15" s="17">
         <v>10000</v>
       </c>
-      <c r="C15" s="17">
+      <c r="D15" s="17">
         <v>2000</v>
       </c>
-      <c r="D15" s="17">
+      <c r="E15" s="17">
         <v>20000</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A16" s="17">
-        <v>10000</v>
-      </c>
+    <row r="16" spans="2:12" ht="18" x14ac:dyDescent="0.2">
       <c r="B16" s="17">
         <v>10000</v>
       </c>
       <c r="C16" s="17">
+        <v>10000</v>
+      </c>
+      <c r="D16" s="17">
         <v>975</v>
       </c>
-      <c r="D16" s="17">
+      <c r="E16" s="17">
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A17" s="17">
+    <row r="17" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B17" s="17">
         <v>20000</v>
       </c>
-      <c r="B17" s="17">
+      <c r="C17" s="17">
         <v>1000</v>
       </c>
-      <c r="C17" s="17">
+      <c r="D17" s="17">
         <v>2000</v>
       </c>
-      <c r="D17" s="17">
+      <c r="E17" s="17">
         <v>5000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A18" s="17">
+    <row r="18" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B18" s="17">
         <v>5000</v>
       </c>
-      <c r="B18" s="17">
+      <c r="C18" s="17">
         <v>30000</v>
       </c>
-      <c r="C18" s="17">
+      <c r="D18" s="17">
         <v>20500</v>
       </c>
-      <c r="D18" s="17">
+      <c r="E18" s="17">
         <v>34000</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="17">
+    <row r="19" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B19" s="17">
         <v>20000</v>
       </c>
-      <c r="B19" s="17">
+      <c r="C19" s="17">
         <v>10000</v>
       </c>
-      <c r="C19" s="17">
+      <c r="D19" s="17">
         <v>25877</v>
       </c>
-      <c r="D19" s="17">
+      <c r="E19" s="17">
         <v>65000</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A20" s="17">
+    <row r="20" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B20" s="17">
         <v>3500</v>
       </c>
-      <c r="B20" s="17">
+      <c r="C20" s="17">
         <v>20000</v>
       </c>
-      <c r="C20" s="17">
+      <c r="D20" s="17">
         <v>28000</v>
       </c>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A21" s="17">
+      <c r="E20" s="17">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B21" s="17">
         <v>5000</v>
       </c>
-      <c r="B21" s="17">
+      <c r="C21" s="17">
         <v>10000</v>
       </c>
-      <c r="C21" s="17"/>
       <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A22" s="17">
+      <c r="E21" s="17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B22" s="17">
         <v>486</v>
-      </c>
-      <c r="B22" s="17">
-        <v>219000</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A23" s="17">
+      <c r="E22" s="17">
         <v>50000</v>
       </c>
+    </row>
+    <row r="23" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B23" s="17">
+        <v>50000</v>
+      </c>
+      <c r="C23" s="17">
         <v>20000</v>
       </c>
-      <c r="C23" s="17"/>
       <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A24" s="17">
+      <c r="E23" s="17">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B24" s="17">
         <v>20000</v>
       </c>
-      <c r="B24" s="17">
+      <c r="C24" s="17">
         <v>7000</v>
       </c>
-      <c r="C24" s="17"/>
       <c r="D24" s="17"/>
-    </row>
-    <row r="25" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A25" s="17">
+      <c r="E24" s="17">
+        <v>6250</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B25" s="17">
         <v>30000</v>
       </c>
-      <c r="B25" s="17">
+      <c r="C25" s="17">
         <v>1600</v>
       </c>
-      <c r="C25" s="17"/>
       <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A26" s="17">
+      <c r="E25" s="17">
+        <v>57056</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B26" s="17">
         <v>23000</v>
       </c>
-      <c r="B26" s="17">
+      <c r="C26" s="17">
         <v>25000</v>
       </c>
-      <c r="C26" s="17"/>
       <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A27" s="17">
+      <c r="E26" s="17"/>
+    </row>
+    <row r="27" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B27" s="17">
         <v>840</v>
       </c>
-      <c r="B27" s="17">
+      <c r="C27" s="17">
         <v>25000</v>
       </c>
-      <c r="C27" s="17"/>
       <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A28" s="17">
+      <c r="E27" s="17"/>
+    </row>
+    <row r="28" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B28" s="17">
         <v>486</v>
       </c>
-      <c r="B28" s="17">
+      <c r="C28" s="17">
         <v>2000</v>
       </c>
-      <c r="C28" s="17"/>
       <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A29" s="17">
+      <c r="E28" s="17"/>
+    </row>
+    <row r="29" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B29" s="17">
         <v>30000</v>
       </c>
-      <c r="B29" s="17">
+      <c r="C29" s="17">
         <v>2000</v>
       </c>
-      <c r="C29" s="17"/>
       <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A30" s="17">
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B30" s="17">
         <v>20000</v>
       </c>
-      <c r="B30" s="17">
+      <c r="C30" s="17">
         <v>15000</v>
       </c>
-      <c r="C30" s="17"/>
       <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A31" s="17">
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B31" s="17">
         <v>25000</v>
       </c>
-      <c r="B31" s="17">
+      <c r="C31" s="17">
         <v>30000</v>
       </c>
-      <c r="C31" s="17"/>
       <c r="D31" s="17"/>
-    </row>
-    <row r="32" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A32" s="17">
+      <c r="E31" s="17"/>
+    </row>
+    <row r="32" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B32" s="17">
         <v>40000</v>
       </c>
-      <c r="B32" s="17">
+      <c r="C32" s="17">
         <v>7700</v>
       </c>
-      <c r="C32" s="17"/>
       <c r="D32" s="17"/>
-    </row>
-    <row r="33" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A33" s="17">
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B33" s="17">
         <v>40000</v>
       </c>
-      <c r="B33" s="17">
+      <c r="C33" s="17">
         <v>6000</v>
       </c>
-      <c r="C33" s="17"/>
       <c r="D33" s="17"/>
-    </row>
-    <row r="34" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A34" s="17">
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B34" s="17">
         <v>49400</v>
       </c>
-      <c r="B34" s="17">
+      <c r="C34" s="17">
         <v>3000</v>
       </c>
-      <c r="C34" s="17"/>
       <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A35" s="17">
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B35" s="17">
         <v>6118</v>
       </c>
-      <c r="B35" s="17">
+      <c r="C35" s="17">
         <v>1400</v>
       </c>
-      <c r="C35" s="17"/>
       <c r="D35" s="17"/>
-    </row>
-    <row r="36" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A36" s="17">
+      <c r="E35" s="17"/>
+    </row>
+    <row r="36" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B36" s="17">
         <v>40000</v>
       </c>
-      <c r="B36" s="17">
+      <c r="C36" s="17">
         <v>10000</v>
       </c>
-      <c r="C36" s="17"/>
       <c r="D36" s="17"/>
-    </row>
-    <row r="37" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A37" s="17">
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B37" s="17">
         <v>1200</v>
       </c>
-      <c r="B37" s="17">
+      <c r="C37" s="17">
         <v>20000</v>
       </c>
-      <c r="C37" s="17"/>
       <c r="D37" s="17"/>
-    </row>
-    <row r="38" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A38" s="17">
+      <c r="E37" s="17"/>
+    </row>
+    <row r="38" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B38" s="17">
         <v>700</v>
       </c>
-      <c r="B38" s="17">
+      <c r="C38" s="17">
         <v>13776</v>
       </c>
-      <c r="C38" s="17"/>
       <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A39" s="17">
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B39" s="17">
         <v>700</v>
       </c>
-      <c r="B39" s="17">
+      <c r="C39" s="17">
         <v>20000</v>
       </c>
-      <c r="C39" s="17"/>
       <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A40" s="17">
+      <c r="E39" s="17"/>
+    </row>
+    <row r="40" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B40" s="17">
         <v>600</v>
       </c>
-      <c r="B40" s="17">
+      <c r="C40" s="17">
         <v>15000</v>
       </c>
-      <c r="C40" s="17"/>
       <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A41" s="17">
+      <c r="E40" s="17"/>
+    </row>
+    <row r="41" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B41" s="17">
         <v>8000</v>
       </c>
-      <c r="B41" s="17">
+      <c r="C41" s="17">
         <v>2900</v>
       </c>
-      <c r="C41" s="17"/>
       <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A42" s="17">
-        <v>10000</v>
-      </c>
+      <c r="E41" s="17"/>
+    </row>
+    <row r="42" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B42" s="17">
         <v>10000</v>
       </c>
-      <c r="C42" s="17"/>
+      <c r="C42" s="17">
+        <v>10000</v>
+      </c>
       <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A43" s="17"/>
-      <c r="B43" s="17">
+      <c r="E42" s="17"/>
+    </row>
+    <row r="43" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B43" s="17"/>
+      <c r="C43" s="17">
         <v>10000</v>
       </c>
-      <c r="C43" s="17"/>
       <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A44" s="17"/>
-      <c r="B44" s="17">
+      <c r="E43" s="17"/>
+    </row>
+    <row r="44" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B44" s="17"/>
+      <c r="C44" s="17">
         <v>10000</v>
       </c>
-      <c r="C44" s="17"/>
       <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A45" s="17"/>
-      <c r="B45" s="17">
+      <c r="E44" s="17"/>
+    </row>
+    <row r="45" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B45" s="17"/>
+      <c r="C45" s="17">
         <v>10000</v>
       </c>
-      <c r="C45" s="17"/>
       <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A46" s="17"/>
-      <c r="B46" s="17">
+      <c r="E45" s="17"/>
+    </row>
+    <row r="46" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B46" s="17"/>
+      <c r="C46" s="17">
         <v>20000</v>
       </c>
-      <c r="C46" s="17"/>
       <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A47" s="17"/>
-      <c r="B47" s="17">
+      <c r="E46" s="17"/>
+    </row>
+    <row r="47" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B47" s="17"/>
+      <c r="C47" s="17">
         <v>5000</v>
       </c>
-      <c r="C47" s="17"/>
       <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A48" s="17"/>
-      <c r="B48" s="17">
+      <c r="E47" s="17"/>
+    </row>
+    <row r="48" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B48" s="17"/>
+      <c r="C48" s="17">
         <v>3500</v>
       </c>
-      <c r="C48" s="17"/>
       <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A49" s="17"/>
-      <c r="B49" s="17">
+      <c r="E48" s="17"/>
+    </row>
+    <row r="49" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B49" s="17"/>
+      <c r="C49" s="17">
         <v>2300</v>
       </c>
-      <c r="C49" s="17"/>
       <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A50" s="17"/>
-      <c r="B50" s="17">
+      <c r="E49" s="17"/>
+    </row>
+    <row r="50" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B50" s="17"/>
+      <c r="C50" s="17">
         <v>2000</v>
       </c>
-      <c r="C50" s="17"/>
       <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A51" s="17"/>
-      <c r="B51" s="17">
+      <c r="E50" s="17"/>
+    </row>
+    <row r="51" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B51" s="17"/>
+      <c r="C51" s="17">
         <v>20000</v>
       </c>
-      <c r="C51" s="17"/>
       <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A52" s="17"/>
-      <c r="B52" s="17">
+      <c r="E51" s="17"/>
+    </row>
+    <row r="52" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B52" s="17"/>
+      <c r="C52" s="17">
         <v>5000</v>
       </c>
-      <c r="C52" s="17"/>
       <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A53" s="17"/>
-      <c r="B53" s="17">
+      <c r="E52" s="17"/>
+    </row>
+    <row r="53" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B53" s="17"/>
+      <c r="C53" s="17">
         <v>10000</v>
       </c>
-      <c r="C53" s="17"/>
       <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A54" s="17"/>
-      <c r="B54" s="17">
+      <c r="E53" s="17"/>
+    </row>
+    <row r="54" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B54" s="17"/>
+      <c r="C54" s="17">
         <v>10000</v>
       </c>
-      <c r="C54" s="17"/>
       <c r="D54" s="17"/>
-    </row>
-    <row r="55" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A55" s="17"/>
-      <c r="B55" s="17">
+      <c r="E54" s="17"/>
+    </row>
+    <row r="55" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B55" s="17"/>
+      <c r="C55" s="17">
         <v>825</v>
       </c>
-      <c r="C55" s="17"/>
       <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17">
+      <c r="E55" s="17"/>
+    </row>
+    <row r="56" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B56" s="17"/>
+      <c r="C56" s="17">
         <v>20000</v>
       </c>
-      <c r="C56" s="17"/>
       <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17">
+      <c r="E56" s="17"/>
+    </row>
+    <row r="57" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B57" s="17"/>
+      <c r="C57" s="17">
         <v>3000</v>
       </c>
-      <c r="C57" s="17"/>
       <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17">
+      <c r="E57" s="17"/>
+    </row>
+    <row r="58" spans="2:5" ht="18" x14ac:dyDescent="0.2">
+      <c r="B58" s="17"/>
+      <c r="C58" s="17">
         <v>3000</v>
       </c>
-      <c r="C58" s="17"/>
       <c r="D58" s="17"/>
-    </row>
-    <row r="59" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A59" s="17"/>
+      <c r="E58" s="17"/>
+    </row>
+    <row r="59" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B59" s="17"/>
       <c r="C59" s="17"/>
       <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A60" s="17"/>
+      <c r="E59" s="17"/>
+    </row>
+    <row r="60" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B60" s="17"/>
       <c r="C60" s="17"/>
       <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A61" s="17"/>
+      <c r="E60" s="17"/>
+    </row>
+    <row r="61" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B61" s="17"/>
       <c r="C61" s="17"/>
       <c r="D61" s="17"/>
-    </row>
-    <row r="62" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A62" s="17"/>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B62" s="17"/>
       <c r="C62" s="17"/>
       <c r="D62" s="17"/>
-    </row>
-    <row r="63" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A63" s="17"/>
+      <c r="E62" s="17"/>
+    </row>
+    <row r="63" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B63" s="17"/>
       <c r="C63" s="17"/>
       <c r="D63" s="17"/>
-    </row>
-    <row r="64" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A64" s="17"/>
+      <c r="E63" s="17"/>
+    </row>
+    <row r="64" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B64" s="17"/>
       <c r="C64" s="17"/>
       <c r="D64" s="17"/>
-    </row>
-    <row r="65" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A65" s="17"/>
+      <c r="E64" s="17"/>
+    </row>
+    <row r="65" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B65" s="17"/>
       <c r="C65" s="17"/>
       <c r="D65" s="17"/>
-    </row>
-    <row r="66" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A66" s="17"/>
+      <c r="E65" s="17"/>
+    </row>
+    <row r="66" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B66" s="17"/>
       <c r="C66" s="17"/>
       <c r="D66" s="17"/>
-    </row>
-    <row r="67" spans="1:4" ht="18" x14ac:dyDescent="0.2">
-      <c r="A67" s="17"/>
+      <c r="E66" s="17"/>
+    </row>
+    <row r="67" spans="2:5" ht="18" x14ac:dyDescent="0.2">
       <c r="B67" s="17"/>
       <c r="C67" s="17"/>
       <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="56" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="55" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:M123"/>
   <sheetViews>
     <sheetView rightToLeft="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -12490,76 +15285,76 @@
       </c>
       <c r="E3" s="43"/>
       <c r="F3" s="44"/>
-      <c r="L3" s="45">
+      <c r="L3" s="51">
         <f>L4+M4</f>
         <v>2227432</v>
       </c>
-      <c r="M3" s="46"/>
+      <c r="M3" s="52"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="47">
+      <c r="A4" s="45">
         <v>1</v>
       </c>
-      <c r="B4" s="48">
+      <c r="B4" s="46">
         <v>1562045</v>
       </c>
-      <c r="C4" s="48">
+      <c r="C4" s="46">
         <v>1958933</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="46">
         <f>B4-C4</f>
         <v>-396888</v>
       </c>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="L4" s="49">
+      <c r="E4" s="45"/>
+      <c r="F4" s="45"/>
+      <c r="L4" s="47">
         <f>SUM(L6:L52)</f>
         <v>1080732</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="47">
         <f>SUM(M6:M52)</f>
         <v>1146700</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="50">
+      <c r="A5" s="48">
         <f>A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="48">
+      <c r="B5" s="46">
         <v>236000</v>
       </c>
-      <c r="C5" s="48"/>
-      <c r="D5" s="49">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47">
         <f>D4+B5-C5</f>
         <v>-160888</v>
       </c>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
       <c r="H5" t="s">
         <v>36</v>
       </c>
       <c r="I5" t="s">
         <v>37</v>
       </c>
-      <c r="L5" s="50"/>
-      <c r="M5" s="50"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="50">
+      <c r="A6" s="48">
         <f t="shared" ref="A6:A69" si="0">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="46">
         <v>168000</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="49">
+      <c r="C6" s="46"/>
+      <c r="D6" s="47">
         <f t="shared" ref="D6:D69" si="1">D5+B6-C6</f>
         <v>7112</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
       <c r="H6" s="39">
         <v>1402172</v>
       </c>
@@ -12570,1898 +15365,1898 @@
         <f>I6-H6</f>
         <v>825251</v>
       </c>
-      <c r="L6" s="49">
+      <c r="L6" s="47">
         <v>50000</v>
       </c>
-      <c r="M6" s="49">
+      <c r="M6" s="47">
         <v>50000</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="50">
+      <c r="A7" s="48">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="49">
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="L7" s="49">
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="L7" s="47">
         <v>70000</v>
       </c>
-      <c r="M7" s="49">
+      <c r="M7" s="47">
         <v>55000</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="50">
+      <c r="A8" s="48">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="49">
+      <c r="B8" s="46"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="L8" s="49">
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="L8" s="47">
         <v>25000</v>
       </c>
-      <c r="M8" s="51">
+      <c r="M8" s="49">
         <v>3000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="50">
+      <c r="A9" s="48">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="49">
+      <c r="B9" s="46"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="L9" s="49">
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="L9" s="47">
         <v>50000</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="47">
         <v>50000</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="50">
+      <c r="A10" s="48">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="49">
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="L10" s="49">
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="L10" s="47">
         <v>50000</v>
       </c>
-      <c r="M10" s="49">
+      <c r="M10" s="47">
         <v>45000</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="50">
+      <c r="A11" s="48">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="49">
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="L11" s="49">
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="L11" s="47">
         <v>10000</v>
       </c>
-      <c r="M11" s="49">
+      <c r="M11" s="47">
         <v>40000</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="50">
+      <c r="A12" s="48">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="49">
+      <c r="B12" s="46"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E12" s="50"/>
-      <c r="F12" s="50"/>
-      <c r="L12" s="51">
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="L12" s="49">
         <v>6000</v>
       </c>
-      <c r="M12" s="49">
+      <c r="M12" s="47">
         <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="50">
+      <c r="A13" s="48">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="49">
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E13" s="50"/>
-      <c r="F13" s="50"/>
-      <c r="L13" s="49"/>
-      <c r="M13" s="49">
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="L13" s="47"/>
+      <c r="M13" s="47">
         <v>40000</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" s="50">
+      <c r="A14" s="48">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="49">
+      <c r="B14" s="46"/>
+      <c r="C14" s="46"/>
+      <c r="D14" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
-      <c r="L14" s="49">
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="L14" s="47">
         <v>5000</v>
       </c>
-      <c r="M14" s="49"/>
+      <c r="M14" s="47"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" s="50">
+      <c r="A15" s="48">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49">
+      <c r="B15" s="46"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
-      <c r="L15" s="49">
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="L15" s="47">
         <v>2000</v>
       </c>
-      <c r="M15" s="49">
+      <c r="M15" s="47">
         <v>50000</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" s="50">
+      <c r="A16" s="48">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="49">
+      <c r="B16" s="46"/>
+      <c r="C16" s="46"/>
+      <c r="D16" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E16" s="50"/>
-      <c r="F16" s="50"/>
-      <c r="L16" s="49">
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="L16" s="47">
         <v>15000</v>
       </c>
-      <c r="M16" s="49">
+      <c r="M16" s="47">
         <v>50000</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" s="50">
+      <c r="A17" s="48">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="48"/>
-      <c r="C17" s="48"/>
-      <c r="D17" s="49">
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E17" s="50"/>
-      <c r="F17" s="50"/>
-      <c r="L17" s="51">
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="L17" s="49">
         <v>23100</v>
       </c>
-      <c r="M17" s="49">
+      <c r="M17" s="47">
         <v>35000</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" s="50">
+      <c r="A18" s="48">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="49">
+      <c r="B18" s="46"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="L18" s="49">
+      <c r="E18" s="48"/>
+      <c r="F18" s="48"/>
+      <c r="L18" s="47">
         <v>1000</v>
       </c>
-      <c r="M18" s="51">
+      <c r="M18" s="49">
         <v>5000</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" s="50">
+      <c r="A19" s="48">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="49">
+      <c r="B19" s="46"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E19" s="50"/>
-      <c r="F19" s="50"/>
-      <c r="L19" s="49">
+      <c r="E19" s="48"/>
+      <c r="F19" s="48"/>
+      <c r="L19" s="47">
         <v>10000</v>
       </c>
-      <c r="M19" s="51">
+      <c r="M19" s="49">
         <v>5000</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" s="50">
+      <c r="A20" s="48">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49">
+      <c r="B20" s="46"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E20" s="50"/>
-      <c r="F20" s="50"/>
-      <c r="L20" s="49">
+      <c r="E20" s="48"/>
+      <c r="F20" s="48"/>
+      <c r="L20" s="47">
         <v>25400</v>
       </c>
-      <c r="M20" s="49">
+      <c r="M20" s="47">
         <v>40000</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" s="50">
+      <c r="A21" s="48">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="49">
+      <c r="B21" s="46"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E21" s="50"/>
-      <c r="F21" s="50"/>
-      <c r="L21" s="49">
+      <c r="E21" s="48"/>
+      <c r="F21" s="48"/>
+      <c r="L21" s="47">
         <v>9000</v>
       </c>
-      <c r="M21" s="49">
+      <c r="M21" s="47">
         <v>40000</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" s="50">
+      <c r="A22" s="48">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="49">
+      <c r="B22" s="46"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E22" s="50"/>
-      <c r="F22" s="50"/>
-      <c r="L22" s="52">
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="L22" s="50">
         <v>10000</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="47">
         <v>58950</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" s="50">
+      <c r="A23" s="48">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E23" s="50"/>
-      <c r="F23" s="50"/>
-      <c r="L23" s="49">
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="L23" s="47">
         <v>14000</v>
       </c>
-      <c r="M23" s="49">
+      <c r="M23" s="47">
         <v>750</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" s="50">
+      <c r="A24" s="48">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="49">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E24" s="50"/>
-      <c r="F24" s="50"/>
-      <c r="L24" s="49">
+      <c r="E24" s="48"/>
+      <c r="F24" s="48"/>
+      <c r="L24" s="47">
         <v>10000</v>
       </c>
-      <c r="M24" s="49">
+      <c r="M24" s="47">
         <v>50000</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" s="50">
+      <c r="A25" s="48">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="49">
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E25" s="50"/>
-      <c r="F25" s="50"/>
-      <c r="L25" s="49">
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="L25" s="47">
         <v>1400</v>
       </c>
-      <c r="M25" s="49">
+      <c r="M25" s="47">
         <v>10000</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" s="50">
+      <c r="A26" s="48">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="49">
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E26" s="50"/>
-      <c r="F26" s="50"/>
-      <c r="L26" s="49"/>
-      <c r="M26" s="49">
+      <c r="E26" s="48"/>
+      <c r="F26" s="48"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47">
         <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" s="50">
+      <c r="A27" s="48">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="49">
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E27" s="50"/>
-      <c r="F27" s="50"/>
-      <c r="L27" s="49">
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="L27" s="47">
         <v>30000</v>
       </c>
-      <c r="M27" s="49"/>
+      <c r="M27" s="47"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" s="50">
+      <c r="A28" s="48">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="48"/>
-      <c r="C28" s="48"/>
-      <c r="D28" s="49">
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E28" s="50"/>
-      <c r="F28" s="50"/>
-      <c r="L28" s="49">
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+      <c r="L28" s="47">
         <v>40000</v>
       </c>
-      <c r="M28" s="49">
+      <c r="M28" s="47">
         <v>35000</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" s="50">
+      <c r="A29" s="48">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="49">
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E29" s="50"/>
-      <c r="F29" s="50"/>
-      <c r="L29" s="49">
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+      <c r="L29" s="47">
         <v>20000</v>
       </c>
-      <c r="M29" s="49">
+      <c r="M29" s="47">
         <v>60000</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" s="50">
+      <c r="A30" s="48">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="49">
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="L30" s="49">
+      <c r="E30" s="48"/>
+      <c r="F30" s="48"/>
+      <c r="L30" s="47">
         <v>40000</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="47">
         <v>10000</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" s="50">
+      <c r="A31" s="48">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="49">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E31" s="50"/>
-      <c r="F31" s="50"/>
-      <c r="L31" s="49">
+      <c r="E31" s="48"/>
+      <c r="F31" s="48"/>
+      <c r="L31" s="47">
         <v>50000</v>
       </c>
-      <c r="M31" s="49">
+      <c r="M31" s="47">
         <v>40000</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A32" s="50">
+      <c r="A32" s="48">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="49">
+      <c r="B32" s="46"/>
+      <c r="C32" s="46"/>
+      <c r="D32" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="L32" s="49">
+      <c r="E32" s="48"/>
+      <c r="F32" s="48"/>
+      <c r="L32" s="47">
         <v>10000</v>
       </c>
-      <c r="M32" s="49">
+      <c r="M32" s="47">
         <v>2000</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A33" s="50">
+      <c r="A33" s="48">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="49">
+      <c r="B33" s="46"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E33" s="50"/>
-      <c r="F33" s="50"/>
-      <c r="L33" s="49">
+      <c r="E33" s="48"/>
+      <c r="F33" s="48"/>
+      <c r="L33" s="47">
         <v>30000</v>
       </c>
-      <c r="M33" s="49">
+      <c r="M33" s="47">
         <v>52000</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A34" s="50">
+      <c r="A34" s="48">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="49">
+      <c r="B34" s="46"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E34" s="50"/>
-      <c r="F34" s="50"/>
-      <c r="L34" s="49">
+      <c r="E34" s="48"/>
+      <c r="F34" s="48"/>
+      <c r="L34" s="47">
         <v>29000</v>
       </c>
-      <c r="M34" s="49">
+      <c r="M34" s="47">
         <v>15000</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A35" s="50">
+      <c r="A35" s="48">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="49">
+      <c r="B35" s="46"/>
+      <c r="C35" s="46"/>
+      <c r="D35" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E35" s="50"/>
-      <c r="F35" s="50"/>
-      <c r="L35" s="51">
+      <c r="E35" s="48"/>
+      <c r="F35" s="48"/>
+      <c r="L35" s="49">
         <v>35200</v>
       </c>
-      <c r="M35" s="49">
+      <c r="M35" s="47">
         <v>30000</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" s="50">
+      <c r="A36" s="48">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="49">
+      <c r="B36" s="46"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E36" s="50"/>
-      <c r="F36" s="50"/>
-      <c r="L36" s="49">
+      <c r="E36" s="48"/>
+      <c r="F36" s="48"/>
+      <c r="L36" s="47">
         <v>15000</v>
       </c>
-      <c r="M36" s="49">
+      <c r="M36" s="47">
         <v>2000</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" s="50">
+      <c r="A37" s="48">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="49">
+      <c r="B37" s="46"/>
+      <c r="C37" s="46"/>
+      <c r="D37" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E37" s="50"/>
-      <c r="F37" s="50"/>
-      <c r="L37" s="49"/>
-      <c r="M37" s="49">
+      <c r="E37" s="48"/>
+      <c r="F37" s="48"/>
+      <c r="L37" s="47"/>
+      <c r="M37" s="47">
         <v>7000</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" s="50">
+      <c r="A38" s="48">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="49">
+      <c r="B38" s="46"/>
+      <c r="C38" s="46"/>
+      <c r="D38" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E38" s="50"/>
-      <c r="F38" s="50"/>
-      <c r="L38" s="49">
+      <c r="E38" s="48"/>
+      <c r="F38" s="48"/>
+      <c r="L38" s="47">
         <v>40000</v>
       </c>
-      <c r="M38" s="49">
+      <c r="M38" s="47">
         <v>40000</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" s="50">
+      <c r="A39" s="48">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="49">
+      <c r="B39" s="46"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="L39" s="49">
+      <c r="E39" s="48"/>
+      <c r="F39" s="48"/>
+      <c r="L39" s="47">
         <v>40000</v>
       </c>
-      <c r="M39" s="49">
+      <c r="M39" s="47">
         <v>30000</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" s="50">
+      <c r="A40" s="48">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="B40" s="48"/>
-      <c r="C40" s="48"/>
-      <c r="D40" s="49">
+      <c r="B40" s="46"/>
+      <c r="C40" s="46"/>
+      <c r="D40" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="L40" s="49">
+      <c r="E40" s="48"/>
+      <c r="F40" s="48"/>
+      <c r="L40" s="47">
         <v>5000</v>
       </c>
-      <c r="M40" s="49">
+      <c r="M40" s="47">
         <v>40000</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" s="50">
+      <c r="A41" s="48">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="B41" s="48"/>
-      <c r="C41" s="48"/>
-      <c r="D41" s="49">
+      <c r="B41" s="46"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E41" s="50"/>
-      <c r="F41" s="50"/>
-      <c r="L41" s="49">
+      <c r="E41" s="48"/>
+      <c r="F41" s="48"/>
+      <c r="L41" s="47">
         <v>28800</v>
       </c>
-      <c r="M41" s="49">
+      <c r="M41" s="47">
         <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" s="50">
+      <c r="A42" s="48">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="B42" s="48"/>
-      <c r="C42" s="48"/>
-      <c r="D42" s="49">
+      <c r="B42" s="46"/>
+      <c r="C42" s="46"/>
+      <c r="D42" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E42" s="50"/>
-      <c r="F42" s="50"/>
-      <c r="L42" s="49">
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="L42" s="47">
         <v>70000</v>
       </c>
-      <c r="M42" s="49">
+      <c r="M42" s="47">
         <v>20000</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A43" s="50">
+      <c r="A43" s="48">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="B43" s="48"/>
-      <c r="C43" s="48"/>
-      <c r="D43" s="49">
+      <c r="B43" s="46"/>
+      <c r="C43" s="46"/>
+      <c r="D43" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E43" s="50"/>
-      <c r="F43" s="50"/>
-      <c r="L43" s="49">
+      <c r="E43" s="48"/>
+      <c r="F43" s="48"/>
+      <c r="L43" s="47">
         <v>10000</v>
       </c>
-      <c r="M43" s="49">
+      <c r="M43" s="47">
         <v>10000</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A44" s="50">
+      <c r="A44" s="48">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="B44" s="48"/>
-      <c r="C44" s="48"/>
-      <c r="D44" s="49">
+      <c r="B44" s="46"/>
+      <c r="C44" s="46"/>
+      <c r="D44" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E44" s="50"/>
-      <c r="F44" s="50"/>
-      <c r="L44" s="49">
+      <c r="E44" s="48"/>
+      <c r="F44" s="48"/>
+      <c r="L44" s="47">
         <v>832</v>
       </c>
-      <c r="M44" s="49">
+      <c r="M44" s="47">
         <v>10000</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A45" s="50">
+      <c r="A45" s="48">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="B45" s="48"/>
-      <c r="C45" s="48"/>
-      <c r="D45" s="49">
+      <c r="B45" s="46"/>
+      <c r="C45" s="46"/>
+      <c r="D45" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E45" s="50"/>
-      <c r="F45" s="50"/>
-      <c r="L45" s="49">
+      <c r="E45" s="48"/>
+      <c r="F45" s="48"/>
+      <c r="L45" s="47">
         <v>15000</v>
       </c>
-      <c r="M45" s="49">
+      <c r="M45" s="47">
         <v>5000</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A46" s="50">
+      <c r="A46" s="48">
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="B46" s="48"/>
-      <c r="C46" s="48"/>
-      <c r="D46" s="49">
+      <c r="B46" s="46"/>
+      <c r="C46" s="46"/>
+      <c r="D46" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="L46" s="49">
+      <c r="E46" s="48"/>
+      <c r="F46" s="48"/>
+      <c r="L46" s="47">
         <v>15000</v>
       </c>
-      <c r="M46" s="49"/>
+      <c r="M46" s="47"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A47" s="50">
+      <c r="A47" s="48">
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
-      <c r="D47" s="49">
+      <c r="B47" s="46"/>
+      <c r="C47" s="46"/>
+      <c r="D47" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="L47" s="49">
+      <c r="E47" s="48"/>
+      <c r="F47" s="48"/>
+      <c r="L47" s="47">
         <v>50000</v>
       </c>
-      <c r="M47" s="49">
+      <c r="M47" s="47">
         <v>75000</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A48" s="50">
+      <c r="A48" s="48">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
-      <c r="D48" s="49">
+      <c r="B48" s="46"/>
+      <c r="C48" s="46"/>
+      <c r="D48" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E48" s="50"/>
-      <c r="F48" s="50"/>
-      <c r="L48" s="49">
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="L48" s="47">
         <v>10000</v>
       </c>
-      <c r="M48" s="49"/>
+      <c r="M48" s="47"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A49" s="50">
+      <c r="A49" s="48">
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="49">
+      <c r="B49" s="46"/>
+      <c r="C49" s="46"/>
+      <c r="D49" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E49" s="50"/>
-      <c r="F49" s="50"/>
-      <c r="L49" s="49"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="L49" s="47"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="50">
+      <c r="A50" s="48">
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="D50" s="49">
+      <c r="B50" s="46"/>
+      <c r="C50" s="46"/>
+      <c r="D50" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E50" s="50"/>
-      <c r="F50" s="50"/>
-      <c r="L50" s="49">
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="L50" s="47">
         <v>90000</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A51" s="50">
+      <c r="A51" s="48">
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="B51" s="48"/>
-      <c r="C51" s="48"/>
-      <c r="D51" s="49">
+      <c r="B51" s="46"/>
+      <c r="C51" s="46"/>
+      <c r="D51" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E51" s="50"/>
-      <c r="F51" s="50"/>
-      <c r="L51" s="49">
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="L51" s="47">
         <v>10000</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A52" s="50">
+      <c r="A52" s="48">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="B52" s="48"/>
-      <c r="C52" s="48"/>
-      <c r="D52" s="49">
+      <c r="B52" s="46"/>
+      <c r="C52" s="46"/>
+      <c r="D52" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E52" s="50"/>
-      <c r="F52" s="50"/>
-      <c r="L52" s="49">
+      <c r="E52" s="48"/>
+      <c r="F52" s="48"/>
+      <c r="L52" s="47">
         <v>10000</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A53" s="50">
+      <c r="A53" s="48">
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="B53" s="48"/>
-      <c r="C53" s="48"/>
-      <c r="D53" s="49">
+      <c r="B53" s="46"/>
+      <c r="C53" s="46"/>
+      <c r="D53" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E53" s="50"/>
-      <c r="F53" s="50"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A54" s="50">
+      <c r="A54" s="48">
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="B54" s="48"/>
-      <c r="C54" s="48"/>
-      <c r="D54" s="49">
+      <c r="B54" s="46"/>
+      <c r="C54" s="46"/>
+      <c r="D54" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E54" s="50"/>
-      <c r="F54" s="50"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A55" s="50">
+      <c r="A55" s="48">
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="B55" s="48"/>
-      <c r="C55" s="48"/>
-      <c r="D55" s="49">
+      <c r="B55" s="46"/>
+      <c r="C55" s="46"/>
+      <c r="D55" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E55" s="50"/>
-      <c r="F55" s="50"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A56" s="50">
+      <c r="A56" s="48">
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="B56" s="48"/>
-      <c r="C56" s="48"/>
-      <c r="D56" s="49">
+      <c r="B56" s="46"/>
+      <c r="C56" s="46"/>
+      <c r="D56" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E56" s="50"/>
-      <c r="F56" s="50"/>
+      <c r="E56" s="48"/>
+      <c r="F56" s="48"/>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A57" s="50">
+      <c r="A57" s="48">
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="B57" s="48"/>
-      <c r="C57" s="48"/>
-      <c r="D57" s="49">
+      <c r="B57" s="46"/>
+      <c r="C57" s="46"/>
+      <c r="D57" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E57" s="50"/>
-      <c r="F57" s="50"/>
+      <c r="E57" s="48"/>
+      <c r="F57" s="48"/>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A58" s="50">
+      <c r="A58" s="48">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="B58" s="48"/>
-      <c r="C58" s="48"/>
-      <c r="D58" s="49">
+      <c r="B58" s="46"/>
+      <c r="C58" s="46"/>
+      <c r="D58" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E58" s="50"/>
-      <c r="F58" s="50"/>
+      <c r="E58" s="48"/>
+      <c r="F58" s="48"/>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A59" s="50">
+      <c r="A59" s="48">
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="B59" s="48"/>
-      <c r="C59" s="48"/>
-      <c r="D59" s="49">
+      <c r="B59" s="46"/>
+      <c r="C59" s="46"/>
+      <c r="D59" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E59" s="50"/>
-      <c r="F59" s="50"/>
+      <c r="E59" s="48"/>
+      <c r="F59" s="48"/>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A60" s="50">
+      <c r="A60" s="48">
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="B60" s="48"/>
-      <c r="C60" s="48"/>
-      <c r="D60" s="49">
+      <c r="B60" s="46"/>
+      <c r="C60" s="46"/>
+      <c r="D60" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E60" s="50"/>
-      <c r="F60" s="50"/>
+      <c r="E60" s="48"/>
+      <c r="F60" s="48"/>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A61" s="50">
+      <c r="A61" s="48">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="B61" s="48"/>
-      <c r="C61" s="48"/>
-      <c r="D61" s="49">
+      <c r="B61" s="46"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E61" s="50"/>
-      <c r="F61" s="50"/>
+      <c r="E61" s="48"/>
+      <c r="F61" s="48"/>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A62" s="50">
+      <c r="A62" s="48">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="B62" s="48"/>
-      <c r="C62" s="48"/>
-      <c r="D62" s="49">
+      <c r="B62" s="46"/>
+      <c r="C62" s="46"/>
+      <c r="D62" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E62" s="50"/>
-      <c r="F62" s="50"/>
+      <c r="E62" s="48"/>
+      <c r="F62" s="48"/>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A63" s="50">
+      <c r="A63" s="48">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="B63" s="48"/>
-      <c r="C63" s="48"/>
-      <c r="D63" s="49">
+      <c r="B63" s="46"/>
+      <c r="C63" s="46"/>
+      <c r="D63" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E63" s="50"/>
-      <c r="F63" s="50"/>
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A64" s="50">
+      <c r="A64" s="48">
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="B64" s="48"/>
-      <c r="C64" s="48"/>
-      <c r="D64" s="49">
+      <c r="B64" s="46"/>
+      <c r="C64" s="46"/>
+      <c r="D64" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E64" s="50"/>
-      <c r="F64" s="50"/>
+      <c r="E64" s="48"/>
+      <c r="F64" s="48"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="50">
+      <c r="A65" s="48">
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="B65" s="48"/>
-      <c r="C65" s="48"/>
-      <c r="D65" s="49">
+      <c r="B65" s="46"/>
+      <c r="C65" s="46"/>
+      <c r="D65" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E65" s="50"/>
-      <c r="F65" s="50"/>
+      <c r="E65" s="48"/>
+      <c r="F65" s="48"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="50">
+      <c r="A66" s="48">
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="B66" s="48"/>
-      <c r="C66" s="48"/>
-      <c r="D66" s="49">
+      <c r="B66" s="46"/>
+      <c r="C66" s="46"/>
+      <c r="D66" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E66" s="50"/>
-      <c r="F66" s="50"/>
+      <c r="E66" s="48"/>
+      <c r="F66" s="48"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="50">
+      <c r="A67" s="48">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="B67" s="48"/>
-      <c r="C67" s="48"/>
-      <c r="D67" s="49">
+      <c r="B67" s="46"/>
+      <c r="C67" s="46"/>
+      <c r="D67" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
+      <c r="E67" s="48"/>
+      <c r="F67" s="48"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="50">
+      <c r="A68" s="48">
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="B68" s="48"/>
-      <c r="C68" s="48"/>
-      <c r="D68" s="49">
+      <c r="B68" s="46"/>
+      <c r="C68" s="46"/>
+      <c r="D68" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E68" s="50"/>
-      <c r="F68" s="50"/>
+      <c r="E68" s="48"/>
+      <c r="F68" s="48"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="50">
+      <c r="A69" s="48">
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="B69" s="48"/>
-      <c r="C69" s="48"/>
-      <c r="D69" s="49">
+      <c r="B69" s="46"/>
+      <c r="C69" s="46"/>
+      <c r="D69" s="47">
         <f t="shared" si="1"/>
         <v>7112</v>
       </c>
-      <c r="E69" s="50"/>
-      <c r="F69" s="50"/>
+      <c r="E69" s="48"/>
+      <c r="F69" s="48"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="50">
+      <c r="A70" s="48">
         <f t="shared" ref="A70:A123" si="2">A69+1</f>
         <v>67</v>
       </c>
-      <c r="B70" s="48"/>
-      <c r="C70" s="48"/>
-      <c r="D70" s="49">
+      <c r="B70" s="46"/>
+      <c r="C70" s="46"/>
+      <c r="D70" s="47">
         <f t="shared" ref="D70:D123" si="3">D69+B70-C70</f>
         <v>7112</v>
       </c>
-      <c r="E70" s="50"/>
-      <c r="F70" s="50"/>
+      <c r="E70" s="48"/>
+      <c r="F70" s="48"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="50">
+      <c r="A71" s="48">
         <f t="shared" si="2"/>
         <v>68</v>
       </c>
-      <c r="B71" s="48"/>
-      <c r="C71" s="48"/>
-      <c r="D71" s="49">
+      <c r="B71" s="46"/>
+      <c r="C71" s="46"/>
+      <c r="D71" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E71" s="50"/>
-      <c r="F71" s="50"/>
+      <c r="E71" s="48"/>
+      <c r="F71" s="48"/>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="50">
+      <c r="A72" s="48">
         <f t="shared" si="2"/>
         <v>69</v>
       </c>
-      <c r="B72" s="48"/>
-      <c r="C72" s="48"/>
-      <c r="D72" s="49">
+      <c r="B72" s="46"/>
+      <c r="C72" s="46"/>
+      <c r="D72" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E72" s="50"/>
-      <c r="F72" s="50"/>
+      <c r="E72" s="48"/>
+      <c r="F72" s="48"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A73" s="50">
+      <c r="A73" s="48">
         <f t="shared" si="2"/>
         <v>70</v>
       </c>
-      <c r="B73" s="48"/>
-      <c r="C73" s="48"/>
-      <c r="D73" s="49">
+      <c r="B73" s="46"/>
+      <c r="C73" s="46"/>
+      <c r="D73" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E73" s="50"/>
-      <c r="F73" s="50"/>
+      <c r="E73" s="48"/>
+      <c r="F73" s="48"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A74" s="50">
+      <c r="A74" s="48">
         <f t="shared" si="2"/>
         <v>71</v>
       </c>
-      <c r="B74" s="49"/>
-      <c r="C74" s="48"/>
-      <c r="D74" s="49">
+      <c r="B74" s="47"/>
+      <c r="C74" s="46"/>
+      <c r="D74" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E74" s="50"/>
-      <c r="F74" s="50"/>
+      <c r="E74" s="48"/>
+      <c r="F74" s="48"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="50">
+      <c r="A75" s="48">
         <f t="shared" si="2"/>
         <v>72</v>
       </c>
-      <c r="B75" s="49"/>
-      <c r="C75" s="48"/>
-      <c r="D75" s="49">
+      <c r="B75" s="47"/>
+      <c r="C75" s="46"/>
+      <c r="D75" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E75" s="50"/>
-      <c r="F75" s="50"/>
+      <c r="E75" s="48"/>
+      <c r="F75" s="48"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A76" s="50">
+      <c r="A76" s="48">
         <f t="shared" si="2"/>
         <v>73</v>
       </c>
-      <c r="B76" s="49"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="49">
+      <c r="B76" s="47"/>
+      <c r="C76" s="46"/>
+      <c r="D76" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E76" s="50"/>
-      <c r="F76" s="50"/>
+      <c r="E76" s="48"/>
+      <c r="F76" s="48"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A77" s="50">
+      <c r="A77" s="48">
         <f t="shared" si="2"/>
         <v>74</v>
       </c>
-      <c r="B77" s="49"/>
-      <c r="C77" s="48"/>
-      <c r="D77" s="49">
+      <c r="B77" s="47"/>
+      <c r="C77" s="46"/>
+      <c r="D77" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E77" s="50"/>
-      <c r="F77" s="50"/>
+      <c r="E77" s="48"/>
+      <c r="F77" s="48"/>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A78" s="50">
+      <c r="A78" s="48">
         <f t="shared" si="2"/>
         <v>75</v>
       </c>
-      <c r="B78" s="49"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="49">
+      <c r="B78" s="47"/>
+      <c r="C78" s="46"/>
+      <c r="D78" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E78" s="50"/>
-      <c r="F78" s="50"/>
+      <c r="E78" s="48"/>
+      <c r="F78" s="48"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="50">
+      <c r="A79" s="48">
         <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="B79" s="49"/>
-      <c r="C79" s="48"/>
-      <c r="D79" s="49">
+      <c r="B79" s="47"/>
+      <c r="C79" s="46"/>
+      <c r="D79" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E79" s="50"/>
-      <c r="F79" s="50"/>
+      <c r="E79" s="48"/>
+      <c r="F79" s="48"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A80" s="50">
+      <c r="A80" s="48">
         <f t="shared" si="2"/>
         <v>77</v>
       </c>
-      <c r="B80" s="49"/>
-      <c r="C80" s="48"/>
-      <c r="D80" s="49">
+      <c r="B80" s="47"/>
+      <c r="C80" s="46"/>
+      <c r="D80" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E80" s="50"/>
-      <c r="F80" s="50"/>
+      <c r="E80" s="48"/>
+      <c r="F80" s="48"/>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A81" s="50">
+      <c r="A81" s="48">
         <f t="shared" si="2"/>
         <v>78</v>
       </c>
-      <c r="B81" s="49"/>
-      <c r="C81" s="48"/>
-      <c r="D81" s="49">
+      <c r="B81" s="47"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E81" s="50"/>
-      <c r="F81" s="50"/>
+      <c r="E81" s="48"/>
+      <c r="F81" s="48"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A82" s="50">
+      <c r="A82" s="48">
         <f t="shared" si="2"/>
         <v>79</v>
       </c>
-      <c r="B82" s="49"/>
-      <c r="C82" s="48"/>
-      <c r="D82" s="49">
+      <c r="B82" s="47"/>
+      <c r="C82" s="46"/>
+      <c r="D82" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E82" s="50"/>
-      <c r="F82" s="50"/>
+      <c r="E82" s="48"/>
+      <c r="F82" s="48"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A83" s="50">
+      <c r="A83" s="48">
         <f t="shared" si="2"/>
         <v>80</v>
       </c>
-      <c r="B83" s="49"/>
-      <c r="C83" s="48"/>
-      <c r="D83" s="49">
+      <c r="B83" s="47"/>
+      <c r="C83" s="46"/>
+      <c r="D83" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E83" s="50"/>
-      <c r="F83" s="50"/>
+      <c r="E83" s="48"/>
+      <c r="F83" s="48"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A84" s="50">
+      <c r="A84" s="48">
         <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="B84" s="49"/>
-      <c r="C84" s="48"/>
-      <c r="D84" s="49">
+      <c r="B84" s="47"/>
+      <c r="C84" s="46"/>
+      <c r="D84" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E84" s="50"/>
-      <c r="F84" s="50"/>
+      <c r="E84" s="48"/>
+      <c r="F84" s="48"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A85" s="50">
+      <c r="A85" s="48">
         <f t="shared" si="2"/>
         <v>82</v>
       </c>
-      <c r="B85" s="49"/>
-      <c r="C85" s="48"/>
-      <c r="D85" s="49">
+      <c r="B85" s="47"/>
+      <c r="C85" s="46"/>
+      <c r="D85" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E85" s="50"/>
-      <c r="F85" s="50"/>
+      <c r="E85" s="48"/>
+      <c r="F85" s="48"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A86" s="50">
+      <c r="A86" s="48">
         <f t="shared" si="2"/>
         <v>83</v>
       </c>
-      <c r="B86" s="49"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="49">
+      <c r="B86" s="47"/>
+      <c r="C86" s="46"/>
+      <c r="D86" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E86" s="50"/>
-      <c r="F86" s="50"/>
+      <c r="E86" s="48"/>
+      <c r="F86" s="48"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A87" s="50">
+      <c r="A87" s="48">
         <f t="shared" si="2"/>
         <v>84</v>
       </c>
-      <c r="B87" s="49"/>
-      <c r="C87" s="48"/>
-      <c r="D87" s="49">
+      <c r="B87" s="47"/>
+      <c r="C87" s="46"/>
+      <c r="D87" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E87" s="50"/>
-      <c r="F87" s="50"/>
+      <c r="E87" s="48"/>
+      <c r="F87" s="48"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A88" s="50">
+      <c r="A88" s="48">
         <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="B88" s="49"/>
-      <c r="C88" s="48"/>
-      <c r="D88" s="49">
+      <c r="B88" s="47"/>
+      <c r="C88" s="46"/>
+      <c r="D88" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E88" s="50"/>
-      <c r="F88" s="50"/>
+      <c r="E88" s="48"/>
+      <c r="F88" s="48"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A89" s="50">
+      <c r="A89" s="48">
         <f t="shared" si="2"/>
         <v>86</v>
       </c>
-      <c r="B89" s="49"/>
-      <c r="C89" s="48"/>
-      <c r="D89" s="49">
+      <c r="B89" s="47"/>
+      <c r="C89" s="46"/>
+      <c r="D89" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E89" s="50"/>
-      <c r="F89" s="50"/>
+      <c r="E89" s="48"/>
+      <c r="F89" s="48"/>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A90" s="50">
+      <c r="A90" s="48">
         <f t="shared" si="2"/>
         <v>87</v>
       </c>
-      <c r="B90" s="49"/>
-      <c r="C90" s="48"/>
-      <c r="D90" s="49">
+      <c r="B90" s="47"/>
+      <c r="C90" s="46"/>
+      <c r="D90" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E90" s="50"/>
-      <c r="F90" s="50"/>
+      <c r="E90" s="48"/>
+      <c r="F90" s="48"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A91" s="50">
+      <c r="A91" s="48">
         <f t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="B91" s="49"/>
-      <c r="C91" s="48"/>
-      <c r="D91" s="49">
+      <c r="B91" s="47"/>
+      <c r="C91" s="46"/>
+      <c r="D91" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E91" s="50"/>
-      <c r="F91" s="50"/>
+      <c r="E91" s="48"/>
+      <c r="F91" s="48"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A92" s="50">
+      <c r="A92" s="48">
         <f t="shared" si="2"/>
         <v>89</v>
       </c>
-      <c r="B92" s="49"/>
-      <c r="C92" s="48"/>
-      <c r="D92" s="49">
+      <c r="B92" s="47"/>
+      <c r="C92" s="46"/>
+      <c r="D92" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E92" s="50"/>
-      <c r="F92" s="50"/>
+      <c r="E92" s="48"/>
+      <c r="F92" s="48"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A93" s="50">
+      <c r="A93" s="48">
         <f t="shared" si="2"/>
         <v>90</v>
       </c>
-      <c r="B93" s="49"/>
-      <c r="C93" s="48"/>
-      <c r="D93" s="49">
+      <c r="B93" s="47"/>
+      <c r="C93" s="46"/>
+      <c r="D93" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E93" s="50"/>
-      <c r="F93" s="50"/>
+      <c r="E93" s="48"/>
+      <c r="F93" s="48"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A94" s="50">
+      <c r="A94" s="48">
         <f t="shared" si="2"/>
         <v>91</v>
       </c>
-      <c r="B94" s="49"/>
-      <c r="C94" s="48"/>
-      <c r="D94" s="49">
+      <c r="B94" s="47"/>
+      <c r="C94" s="46"/>
+      <c r="D94" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E94" s="50"/>
-      <c r="F94" s="50"/>
+      <c r="E94" s="48"/>
+      <c r="F94" s="48"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A95" s="50">
+      <c r="A95" s="48">
         <f t="shared" si="2"/>
         <v>92</v>
       </c>
-      <c r="B95" s="49"/>
-      <c r="C95" s="48"/>
-      <c r="D95" s="49">
+      <c r="B95" s="47"/>
+      <c r="C95" s="46"/>
+      <c r="D95" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E95" s="50"/>
-      <c r="F95" s="50"/>
+      <c r="E95" s="48"/>
+      <c r="F95" s="48"/>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A96" s="50">
+      <c r="A96" s="48">
         <f t="shared" si="2"/>
         <v>93</v>
       </c>
-      <c r="B96" s="49"/>
-      <c r="C96" s="48"/>
-      <c r="D96" s="49">
+      <c r="B96" s="47"/>
+      <c r="C96" s="46"/>
+      <c r="D96" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E96" s="50"/>
-      <c r="F96" s="50"/>
+      <c r="E96" s="48"/>
+      <c r="F96" s="48"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A97" s="50">
+      <c r="A97" s="48">
         <f t="shared" si="2"/>
         <v>94</v>
       </c>
-      <c r="B97" s="49"/>
-      <c r="C97" s="48"/>
-      <c r="D97" s="49">
+      <c r="B97" s="47"/>
+      <c r="C97" s="46"/>
+      <c r="D97" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E97" s="50"/>
-      <c r="F97" s="50"/>
+      <c r="E97" s="48"/>
+      <c r="F97" s="48"/>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A98" s="50">
+      <c r="A98" s="48">
         <f t="shared" si="2"/>
         <v>95</v>
       </c>
-      <c r="B98" s="49"/>
-      <c r="C98" s="48"/>
-      <c r="D98" s="49">
+      <c r="B98" s="47"/>
+      <c r="C98" s="46"/>
+      <c r="D98" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E98" s="50"/>
-      <c r="F98" s="50"/>
+      <c r="E98" s="48"/>
+      <c r="F98" s="48"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A99" s="50">
+      <c r="A99" s="48">
         <f t="shared" si="2"/>
         <v>96</v>
       </c>
-      <c r="B99" s="49"/>
-      <c r="C99" s="48"/>
-      <c r="D99" s="49">
+      <c r="B99" s="47"/>
+      <c r="C99" s="46"/>
+      <c r="D99" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E99" s="50"/>
-      <c r="F99" s="50"/>
+      <c r="E99" s="48"/>
+      <c r="F99" s="48"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A100" s="50">
+      <c r="A100" s="48">
         <f t="shared" si="2"/>
         <v>97</v>
       </c>
-      <c r="B100" s="49"/>
-      <c r="C100" s="48"/>
-      <c r="D100" s="49">
+      <c r="B100" s="47"/>
+      <c r="C100" s="46"/>
+      <c r="D100" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E100" s="50"/>
-      <c r="F100" s="50"/>
+      <c r="E100" s="48"/>
+      <c r="F100" s="48"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A101" s="50">
+      <c r="A101" s="48">
         <f t="shared" si="2"/>
         <v>98</v>
       </c>
-      <c r="B101" s="49"/>
-      <c r="C101" s="48"/>
-      <c r="D101" s="49">
+      <c r="B101" s="47"/>
+      <c r="C101" s="46"/>
+      <c r="D101" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E101" s="50"/>
-      <c r="F101" s="50"/>
+      <c r="E101" s="48"/>
+      <c r="F101" s="48"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A102" s="50">
+      <c r="A102" s="48">
         <f t="shared" si="2"/>
         <v>99</v>
       </c>
-      <c r="B102" s="49"/>
-      <c r="C102" s="48"/>
-      <c r="D102" s="49">
+      <c r="B102" s="47"/>
+      <c r="C102" s="46"/>
+      <c r="D102" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E102" s="50"/>
-      <c r="F102" s="50"/>
+      <c r="E102" s="48"/>
+      <c r="F102" s="48"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A103" s="50">
+      <c r="A103" s="48">
         <f t="shared" si="2"/>
         <v>100</v>
       </c>
-      <c r="B103" s="49"/>
-      <c r="C103" s="48"/>
-      <c r="D103" s="49">
+      <c r="B103" s="47"/>
+      <c r="C103" s="46"/>
+      <c r="D103" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E103" s="50"/>
-      <c r="F103" s="50"/>
+      <c r="E103" s="48"/>
+      <c r="F103" s="48"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A104" s="50">
+      <c r="A104" s="48">
         <f t="shared" si="2"/>
         <v>101</v>
       </c>
-      <c r="B104" s="49"/>
-      <c r="C104" s="48"/>
-      <c r="D104" s="49">
+      <c r="B104" s="47"/>
+      <c r="C104" s="46"/>
+      <c r="D104" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E104" s="50"/>
-      <c r="F104" s="50"/>
+      <c r="E104" s="48"/>
+      <c r="F104" s="48"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A105" s="50">
+      <c r="A105" s="48">
         <f t="shared" si="2"/>
         <v>102</v>
       </c>
-      <c r="B105" s="49"/>
-      <c r="C105" s="48"/>
-      <c r="D105" s="49">
+      <c r="B105" s="47"/>
+      <c r="C105" s="46"/>
+      <c r="D105" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E105" s="50"/>
-      <c r="F105" s="50"/>
+      <c r="E105" s="48"/>
+      <c r="F105" s="48"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="50">
+      <c r="A106" s="48">
         <f t="shared" si="2"/>
         <v>103</v>
       </c>
-      <c r="B106" s="49"/>
-      <c r="C106" s="48"/>
-      <c r="D106" s="49">
+      <c r="B106" s="47"/>
+      <c r="C106" s="46"/>
+      <c r="D106" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E106" s="50"/>
-      <c r="F106" s="50"/>
+      <c r="E106" s="48"/>
+      <c r="F106" s="48"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A107" s="50">
+      <c r="A107" s="48">
         <f t="shared" si="2"/>
         <v>104</v>
       </c>
-      <c r="B107" s="49"/>
-      <c r="C107" s="48"/>
-      <c r="D107" s="49">
+      <c r="B107" s="47"/>
+      <c r="C107" s="46"/>
+      <c r="D107" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E107" s="50"/>
-      <c r="F107" s="50"/>
+      <c r="E107" s="48"/>
+      <c r="F107" s="48"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A108" s="50">
+      <c r="A108" s="48">
         <f t="shared" si="2"/>
         <v>105</v>
       </c>
-      <c r="B108" s="49"/>
-      <c r="C108" s="48"/>
-      <c r="D108" s="49">
+      <c r="B108" s="47"/>
+      <c r="C108" s="46"/>
+      <c r="D108" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E108" s="50"/>
-      <c r="F108" s="50"/>
+      <c r="E108" s="48"/>
+      <c r="F108" s="48"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A109" s="50">
+      <c r="A109" s="48">
         <f t="shared" si="2"/>
         <v>106</v>
       </c>
-      <c r="B109" s="49"/>
-      <c r="C109" s="48"/>
-      <c r="D109" s="49">
+      <c r="B109" s="47"/>
+      <c r="C109" s="46"/>
+      <c r="D109" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E109" s="50"/>
-      <c r="F109" s="50"/>
+      <c r="E109" s="48"/>
+      <c r="F109" s="48"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A110" s="50">
+      <c r="A110" s="48">
         <f t="shared" si="2"/>
         <v>107</v>
       </c>
-      <c r="B110" s="49"/>
-      <c r="C110" s="48"/>
-      <c r="D110" s="49">
+      <c r="B110" s="47"/>
+      <c r="C110" s="46"/>
+      <c r="D110" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E110" s="50"/>
-      <c r="F110" s="50"/>
+      <c r="E110" s="48"/>
+      <c r="F110" s="48"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A111" s="50">
+      <c r="A111" s="48">
         <f t="shared" si="2"/>
         <v>108</v>
       </c>
-      <c r="B111" s="49"/>
-      <c r="C111" s="48"/>
-      <c r="D111" s="49">
+      <c r="B111" s="47"/>
+      <c r="C111" s="46"/>
+      <c r="D111" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E111" s="50"/>
-      <c r="F111" s="50"/>
+      <c r="E111" s="48"/>
+      <c r="F111" s="48"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A112" s="50">
+      <c r="A112" s="48">
         <f t="shared" si="2"/>
         <v>109</v>
       </c>
-      <c r="B112" s="49"/>
-      <c r="C112" s="48"/>
-      <c r="D112" s="49">
+      <c r="B112" s="47"/>
+      <c r="C112" s="46"/>
+      <c r="D112" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E112" s="50"/>
-      <c r="F112" s="50"/>
+      <c r="E112" s="48"/>
+      <c r="F112" s="48"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A113" s="50">
+      <c r="A113" s="48">
         <f t="shared" si="2"/>
         <v>110</v>
       </c>
-      <c r="B113" s="49"/>
-      <c r="C113" s="49"/>
-      <c r="D113" s="49">
+      <c r="B113" s="47"/>
+      <c r="C113" s="47"/>
+      <c r="D113" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E113" s="50"/>
-      <c r="F113" s="50"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="50">
+      <c r="A114" s="48">
         <f t="shared" si="2"/>
         <v>111</v>
       </c>
-      <c r="B114" s="49"/>
-      <c r="C114" s="49"/>
-      <c r="D114" s="49">
+      <c r="B114" s="47"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E114" s="50"/>
-      <c r="F114" s="50"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="50">
+      <c r="A115" s="48">
         <f t="shared" si="2"/>
         <v>112</v>
       </c>
-      <c r="B115" s="49"/>
-      <c r="C115" s="49"/>
-      <c r="D115" s="49">
+      <c r="B115" s="47"/>
+      <c r="C115" s="47"/>
+      <c r="D115" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E115" s="50"/>
-      <c r="F115" s="50"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="50">
+      <c r="A116" s="48">
         <f t="shared" si="2"/>
         <v>113</v>
       </c>
-      <c r="B116" s="49"/>
-      <c r="C116" s="49"/>
-      <c r="D116" s="49">
+      <c r="B116" s="47"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E116" s="50"/>
-      <c r="F116" s="50"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A117" s="50">
+      <c r="A117" s="48">
         <f t="shared" si="2"/>
         <v>114</v>
       </c>
-      <c r="B117" s="49"/>
-      <c r="C117" s="49"/>
-      <c r="D117" s="49">
+      <c r="B117" s="47"/>
+      <c r="C117" s="47"/>
+      <c r="D117" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E117" s="50"/>
-      <c r="F117" s="50"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A118" s="50">
+      <c r="A118" s="48">
         <f t="shared" si="2"/>
         <v>115</v>
       </c>
-      <c r="B118" s="49"/>
-      <c r="C118" s="49"/>
-      <c r="D118" s="49">
+      <c r="B118" s="47"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E118" s="50"/>
-      <c r="F118" s="50"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A119" s="50">
+      <c r="A119" s="48">
         <f t="shared" si="2"/>
         <v>116</v>
       </c>
-      <c r="B119" s="49"/>
-      <c r="C119" s="49"/>
-      <c r="D119" s="49">
+      <c r="B119" s="47"/>
+      <c r="C119" s="47"/>
+      <c r="D119" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E119" s="50"/>
-      <c r="F119" s="50"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A120" s="50">
+      <c r="A120" s="48">
         <f t="shared" si="2"/>
         <v>117</v>
       </c>
-      <c r="B120" s="49"/>
-      <c r="C120" s="49"/>
-      <c r="D120" s="49">
+      <c r="B120" s="47"/>
+      <c r="C120" s="47"/>
+      <c r="D120" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E120" s="50"/>
-      <c r="F120" s="50"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A121" s="50">
+      <c r="A121" s="48">
         <f t="shared" si="2"/>
         <v>118</v>
       </c>
-      <c r="B121" s="49"/>
-      <c r="C121" s="49"/>
-      <c r="D121" s="49">
+      <c r="B121" s="47"/>
+      <c r="C121" s="47"/>
+      <c r="D121" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E121" s="50"/>
-      <c r="F121" s="50"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A122" s="50">
+      <c r="A122" s="48">
         <f t="shared" si="2"/>
         <v>119</v>
       </c>
-      <c r="B122" s="49"/>
-      <c r="C122" s="49"/>
-      <c r="D122" s="49">
+      <c r="B122" s="47"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E122" s="50"/>
-      <c r="F122" s="50"/>
+      <c r="E122" s="48"/>
+      <c r="F122" s="48"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A123" s="50">
+      <c r="A123" s="48">
         <f t="shared" si="2"/>
         <v>120</v>
       </c>
-      <c r="B123" s="49"/>
-      <c r="C123" s="49"/>
-      <c r="D123" s="49">
+      <c r="B123" s="47"/>
+      <c r="C123" s="47"/>
+      <c r="D123" s="47">
         <f t="shared" si="3"/>
         <v>7112</v>
       </c>
-      <c r="E123" s="50"/>
-      <c r="F123" s="50"/>
+      <c r="E123" s="48"/>
+      <c r="F123" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="1">
